--- a/biology/Zoologie/Hylarana_attigua/Hylarana_attigua.xlsx
+++ b/biology/Zoologie/Hylarana_attigua/Hylarana_attigua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"Hylarana" attigua est une espèce d'amphibiens de la famille des Ranidae dont la position taxonomique est incertaine (incertae sedis)[1].
-Depuis la révision du genre Hylarana par Oliver, Prendini, Kraus et Raxworthy en 2015[2], cette espèce a été exclue de ce genre sans qu'il soit possible de la placer dans un autre de manière certaine. Elle est rapprochée de Hydrophylax ou Indosylvirana.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Hylarana" attigua est une espèce d'amphibiens de la famille des Ranidae dont la position taxonomique est incertaine (incertae sedis).
+Depuis la révision du genre Hylarana par Oliver, Prendini, Kraus et Raxworthy en 2015, cette espèce a été exclue de ce genre sans qu'il soit possible de la placer dans un autre de manière certaine. Elle est rapprochée de Hydrophylax ou Indosylvirana.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre entre 700 et 1 200 m d'altitude[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre entre 700 et 1 200 m d'altitude :
 au Laos dans les monts Annamite ;
 dans l'est du Cambodge ;
 au Viêt Nam dans les provinces de Gia Lai, de Quảng Nam, de Thừa Thiên-Huế, de Quảng Bình et de Kon Tum ainsi que dans la municipalité de Đà Nẵng.</t>
@@ -545,10 +559,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle holotype mesure mm et la femelle paratype mm
-La femelle holotype mesure 63,7 mm et les mâles de 36,2 à 45,5 mm[3].
+La femelle holotype mesure 63,7 mm et les mâles de 36,2 à 45,5 mm.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Inger, Orlov &amp; Darevsky, 1999 : Frogs of Vietnam: A report on new collections. Fieldiana, Zoology, new series, vol. 92, p. 1-46 (texte intégral).</t>
         </is>
